--- a/CollectionSoftware2/Backup/PIECE OF CAKE.xlsx
+++ b/CollectionSoftware2/Backup/PIECE OF CAKE.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -432,24 +432,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023/07/1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1350</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023/07/1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2880</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
